--- a/QuanLyDuAn v2/Report/Report V1.xlsx
+++ b/QuanLyDuAn v2/Report/Report V1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DongTrieu_Nam3\DoAnPhanMem_2\QuanLyDuAn\Report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32FB896-03BC-4DB9-AAA7-145A64C59BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -456,8 +450,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +514,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -521,7 +665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,12 +680,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -601,12 +925,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -614,32 +1180,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,43 +1220,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -942,30 +1555,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="66.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="51.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="15.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="66.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1000,443 +1613,448 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="9"/>
+    <row r="2" spans="3:3">
+      <c r="C2" s="9" t="e">
+        <f>SUM(C4:C14,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="13">
         <v>10</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="13">
         <v>4</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="13">
         <v>4</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="13">
         <v>3</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="13">
         <v>2</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="13">
         <v>2</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>5</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="13">
         <v>5</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="13">
         <v>4</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="13">
         <v>5</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
-      <c r="A14" s="10">
+    <row r="14" ht="28.8" spans="1:10">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="16">
         <v>8</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.11111111111111" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.799999999999997">
+    <row r="1" ht="69.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1459,7 +2077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72">
+    <row r="2" ht="180" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1482,7 +2100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72">
+    <row r="3" ht="180" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1505,7 +2123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="126">
+    <row r="4" ht="270" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1528,7 +2146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72">
+    <row r="5" ht="198" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1551,7 +2169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="72">
+    <row r="6" ht="234" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1574,7 +2192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72">
+    <row r="7" ht="180" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1597,7 +2215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72">
+    <row r="8" ht="144" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1618,7 +2236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36">
+    <row r="9" ht="72" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1639,7 +2257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="72">
+    <row r="10" ht="216" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1662,7 +2280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72">
+    <row r="11" ht="198" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1685,7 +2303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72">
+    <row r="12" ht="198" spans="1:7">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1708,7 +2326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="54">
+    <row r="13" ht="126" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1729,7 +2347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54">
+    <row r="14" ht="126" spans="1:7">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1750,7 +2368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90">
+    <row r="15" ht="198" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1771,7 +2389,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72">
+    <row r="16" ht="162" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1790,7 +2408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="72">
+    <row r="17" ht="144" spans="1:7">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1813,7 +2431,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="54">
+    <row r="18" ht="126" spans="1:7">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1836,7 +2454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36">
+    <row r="19" ht="72" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1859,7 +2477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36">
+    <row r="20" ht="144" spans="1:7">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1880,7 +2498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="54">
+    <row r="21" ht="162" spans="1:7">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1903,5 +2521,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>